--- a/Design/Main_Data/Const_Data.xlsx
+++ b/Design/Main_Data/Const_Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chief\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FlushX\trunk\Design\Main_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>nameTag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,6 +83,22 @@
   </si>
   <si>
     <t>대상 선택 시간 (1000 = 1초), 스킬 사용도 여기에 포함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crash_DEF_Const</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">방어력이 받은 공격력 보다 30% 높을 때 보정 값 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">방어력이 받은 공격력 보다 30% 낮을 때 보정 값 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clean_DEF_Const</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -430,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -444,7 +460,7 @@
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -455,7 +471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -466,7 +482,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -477,7 +493,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -488,36 +504,59 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B7" s="3">
         <v>20000</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B8" s="3">
         <v>10000</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B9" s="3">
         <v>10000</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
     </row>
